--- a/output2.xlsx
+++ b/output2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Group</t>
   </si>
@@ -68,6 +68,54 @@
   </si>
   <si>
     <t>METER 7</t>
+  </si>
+  <si>
+    <t>Power Vision2</t>
+  </si>
+  <si>
+    <t>Power Vision GA1</t>
+  </si>
+  <si>
+    <t>Auxillary Consump</t>
+  </si>
+  <si>
+    <t>Aux</t>
+  </si>
+  <si>
+    <t>METER 4</t>
+  </si>
+  <si>
+    <t>METER 5</t>
+  </si>
+  <si>
+    <t>Power Vision GA3</t>
+  </si>
+  <si>
+    <t>Sinter 1</t>
+  </si>
+  <si>
+    <t>Sinter1 &amp;3</t>
+  </si>
+  <si>
+    <t>METER 10</t>
+  </si>
+  <si>
+    <t>Power Vision GA2</t>
+  </si>
+  <si>
+    <t>HT Motor</t>
+  </si>
+  <si>
+    <t>Sinter</t>
+  </si>
+  <si>
+    <t>METER 6</t>
+  </si>
+  <si>
+    <t>METER 8</t>
+  </si>
+  <si>
+    <t>METER 9</t>
   </si>
 </sst>
 </file>
@@ -465,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:E11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
@@ -520,7 +568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -534,97 +582,103 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>18</v>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
+  <mergeCells count="11">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
